--- a/FlightDeals.xlsx
+++ b/FlightDeals.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lev4/PycharmProjects/flightclub/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1F54C-5802-B24E-A03D-2B8CF7A6E391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="prices" sheetId="1" r:id="rId4"/>
+    <sheet name="prices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -22,63 +31,65 @@
     <t>Lowest Price</t>
   </si>
   <si>
-    <t>Paris</t>
-  </si>
-  <si>
     <t>PAR</t>
   </si>
   <si>
-    <t>Berlin</t>
-  </si>
-  <si>
     <t>BER</t>
   </si>
   <si>
-    <t>Istanbul</t>
-  </si>
-  <si>
     <t>IST</t>
   </si>
   <si>
-    <t>Sochi, Russia</t>
-  </si>
-  <si>
     <t>AER</t>
   </si>
   <si>
-    <t>St. Petersburg, Russia</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
-    <t>Kaliningrad, Russia</t>
-  </si>
-  <si>
     <t>KGD</t>
+  </si>
+  <si>
+    <t>Париж</t>
+  </si>
+  <si>
+    <t>Берлин</t>
+  </si>
+  <si>
+    <t>Стамбул</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Калининград</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -88,51 +99,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,20 +334,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -347,98 +364,98 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>30000.0</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
-        <v>30000.0</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="4">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>30000.0</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30000.0</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30000.0</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="4">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FlightDeals.xlsx
+++ b/FlightDeals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lev4/PycharmProjects/flightclub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1F54C-5802-B24E-A03D-2B8CF7A6E391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061C72C4-BBA1-F247-ACFC-025352175EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -372,7 +372,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -383,8 +383,8 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>30000</v>
+      <c r="C3" s="6">
+        <v>6000</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -396,11 +396,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -408,11 +408,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -420,11 +420,11 @@
         <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -432,14 +432,14 @@
         <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>30000</v>
+        <v>2300</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -451,7 +451,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>

--- a/FlightDeals.xlsx
+++ b/FlightDeals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lev4/PycharmProjects/flightclub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061C72C4-BBA1-F247-ACFC-025352175EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3DEB2D-BB05-DC4B-B695-3206F577794B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -420,7 +420,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/FlightDeals.xlsx
+++ b/FlightDeals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lev4/PycharmProjects/flightclub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3DEB2D-BB05-DC4B-B695-3206F577794B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B491A7-B482-A442-A7B9-34B0D66D1518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>City</t>
   </si>
@@ -65,6 +65,42 @@
   </si>
   <si>
     <t>Калининград</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>Кейптаун</t>
+  </si>
+  <si>
+    <t>Маракеш</t>
+  </si>
+  <si>
+    <t>Агадир</t>
+  </si>
+  <si>
+    <t>AGA</t>
+  </si>
+  <si>
+    <t>RAK</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>Гонконг</t>
+  </si>
+  <si>
+    <t>BEG</t>
+  </si>
+  <si>
+    <t>Белград</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>Симферополь</t>
   </si>
 </sst>
 </file>
@@ -114,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -126,6 +162,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -347,7 +384,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -420,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>2100</v>
+        <v>2050</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -432,24 +469,78 @@
         <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
+        <v>35000</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11000</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12000</v>
+      </c>
       <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2500</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
